--- a/Training_Report_26Jan2025.xlsx
+++ b/Training_Report_26Jan2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28893AB-F0D8-4767-B91E-2E41BE149DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79BE07E-BEF7-4B51-AB6B-845ABFD97CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -655,92 +655,92 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +784,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>674908</xdr:colOff>
+      <xdr:colOff>676813</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>302233</xdr:rowOff>
     </xdr:to>
@@ -833,9 +833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>637866</xdr:colOff>
+      <xdr:colOff>639771</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>312966</xdr:rowOff>
+      <xdr:rowOff>311061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1188,25 +1188,25 @@
   </sheetPr>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="8"/>
+    <col min="2" max="2" width="17.42578125" style="8"/>
     <col min="3" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="17.08984375" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" customWidth="1"/>
     <col min="11" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
     <col min="17" max="17" width="1" customWidth="1"/>
-    <col min="18" max="18" width="6.453125" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1225,74 +1225,74 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="36" t="str">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="41" t="str">
         <f>"Week beginning"  &amp; CHAR(10) &amp;TEXT(C4,"ddd-dd-mmm")</f>
         <v>Week beginning
 Sat-00-Jan</v>
       </c>
-      <c r="P2" s="37"/>
+      <c r="P2" s="42"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="26"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
@@ -1337,507 +1337,507 @@
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="31"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="40"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="29"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="40"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="30"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="34"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="31"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="29"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="27"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="40"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="30"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="34"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="31"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="30"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="27"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="40"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="31"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="29"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="30"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="27"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="40"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="30"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="34"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="31"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="29"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="42"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="34"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1856,7 +1856,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1873,7 +1873,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -1892,91 +1892,91 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="37"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="42"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="39"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="35">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="22">
+      <c r="D35" s="36"/>
+      <c r="E35" s="35">
         <f t="shared" ref="E35" si="0">E4</f>
         <v>0</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22">
+      <c r="F35" s="36"/>
+      <c r="G35" s="35">
         <f t="shared" ref="G35" si="1">G4</f>
         <v>0</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="22">
+      <c r="H35" s="36"/>
+      <c r="I35" s="35">
         <f t="shared" ref="I35" si="2">I4</f>
         <v>0</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="22">
+      <c r="J35" s="36"/>
+      <c r="K35" s="35">
         <f t="shared" ref="K35:M35" si="3">K4</f>
         <v>0</v>
       </c>
-      <c r="L35" s="23"/>
-      <c r="M35" s="22">
+      <c r="L35" s="36"/>
+      <c r="M35" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="22">
+      <c r="N35" s="36"/>
+      <c r="O35" s="35">
         <f t="shared" ref="O35" si="4">O4</f>
         <v>0</v>
       </c>
-      <c r="P35" s="23"/>
+      <c r="P35" s="36"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="18" t="str">
         <f>C5</f>
         <v>10am - 12pm</v>
@@ -2035,423 +2035,423 @@
       </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="37"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="34"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="31"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="29"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="26"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="30"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="27"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="40"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="30"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="34"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="31"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="29"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="26"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="30"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="27"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="40"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="30"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="34"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="31"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="29"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="26"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="30"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="27"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="40"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="30"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="34"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="31"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="29"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="26"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="30"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="27"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="40"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="30"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="34"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="31"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="29"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="26"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="1:17" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="42"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="34"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="7"/>
       <c r="C57" s="3"/>
@@ -2470,7 +2470,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2487,7 +2487,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
@@ -2506,95 +2506,95 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="36" t="str">
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="41" t="str">
         <f>O2</f>
         <v>Week beginning
 Sat-00-Jan</v>
       </c>
-      <c r="P60" s="37"/>
+      <c r="P60" s="42"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="39"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="44"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="35">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="22">
+      <c r="D62" s="36"/>
+      <c r="E62" s="35">
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22">
+      <c r="F62" s="36"/>
+      <c r="G62" s="35">
         <f>G4</f>
         <v>0</v>
       </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="22">
+      <c r="H62" s="36"/>
+      <c r="I62" s="35">
         <f>I4</f>
         <v>0</v>
       </c>
-      <c r="J62" s="23"/>
-      <c r="K62" s="22">
+      <c r="J62" s="36"/>
+      <c r="K62" s="35">
         <f>K4</f>
         <v>0</v>
       </c>
-      <c r="L62" s="23"/>
-      <c r="M62" s="22">
+      <c r="L62" s="36"/>
+      <c r="M62" s="35">
         <f>M4</f>
         <v>0</v>
       </c>
-      <c r="N62" s="23"/>
-      <c r="O62" s="22">
+      <c r="N62" s="36"/>
+      <c r="O62" s="35">
         <f>O4</f>
         <v>0</v>
       </c>
-      <c r="P62" s="23"/>
+      <c r="P62" s="36"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="28"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="18" t="str">
         <f>C36</f>
         <v>10am - 12pm</v>
@@ -2653,395 +2653,395 @@
       </c>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="37"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="34"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="31"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="29"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="26"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="30"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="27"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="40"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="30"/>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="34"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="31"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="29"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="26"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="30"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="27"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="40"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="30"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="34"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="31"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="29"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="26"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="30"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="27"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="40"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="30"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="11"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="34"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="31"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="29"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="26"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="30"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="27"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="40"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="30"/>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="11"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="34"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="31"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="29"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="26"/>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="42"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="34"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="7"/>
       <c r="C84" s="3"/>
@@ -3062,6 +3062,460 @@
     </row>
   </sheetData>
   <mergeCells count="478">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O60:P61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="B60:N61"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="M74:M75"/>
     <mergeCell ref="N74:N75"/>
@@ -3086,460 +3540,6 @@
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="M28:M29"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="B60:N61"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="O60:P61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>

--- a/Training_Report_26Jan2025.xlsx
+++ b/Training_Report_26Jan2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC0701-91ED-4BC5-8A04-37A0A03CC6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA501AAD-B3C9-4F45-85C6-B5AE486BDEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Group</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Sulaf</t>
   </si>
   <si>
-    <t>Curtis</t>
+    <t>Kurt Kourto</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>639771</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>311061</xdr:rowOff>
+      <xdr:rowOff>317411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1188,25 +1188,25 @@
   </sheetPr>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:N4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="8"/>
+    <col min="2" max="2" width="17.453125" style="8"/>
     <col min="3" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="17.140625" customWidth="1"/>
+    <col min="9" max="10" width="17.1796875" customWidth="1"/>
     <col min="11" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
     <col min="17" max="17" width="1" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="18" max="18" width="6.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1225,7 +1225,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="47" t="s">
         <v>39</v>
@@ -1250,7 +1250,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
@@ -1269,7 +1269,7 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="20" t="s">
         <v>0</v>
@@ -1290,7 +1290,7 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="21"/>
       <c r="C5" s="18" t="s">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -1358,7 +1358,7 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>34</v>
@@ -1379,7 +1379,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
         <v>11</v>
@@ -1400,7 +1400,7 @@
       <c r="P8" s="29"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="13" t="s">
         <v>12</v>
@@ -1421,7 +1421,7 @@
       <c r="P9" s="30"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
         <v>13</v>
@@ -1442,7 +1442,7 @@
       <c r="P10" s="40"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="15" t="s">
         <v>14</v>
@@ -1463,7 +1463,7 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
         <v>5</v>
@@ -1484,7 +1484,7 @@
       <c r="P12" s="29"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
         <v>6</v>
@@ -1505,7 +1505,7 @@
       <c r="P13" s="30"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="14" t="s">
         <v>16</v>
@@ -1526,7 +1526,7 @@
       <c r="P14" s="40"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
@@ -1547,7 +1547,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
         <v>17</v>
@@ -1568,7 +1568,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
         <v>18</v>
@@ -1589,7 +1589,7 @@
       <c r="P17" s="30"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>17</v>
@@ -1610,7 +1610,7 @@
       <c r="P18" s="40"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>19</v>
@@ -1631,7 +1631,7 @@
       <c r="P19" s="34"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="12" t="s">
         <v>17</v>
@@ -1652,7 +1652,7 @@
       <c r="P20" s="29"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="13" t="s">
         <v>20</v>
@@ -1673,7 +1673,7 @@
       <c r="P21" s="30"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="14" t="s">
         <v>22</v>
@@ -1694,7 +1694,7 @@
       <c r="P22" s="40"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="15" t="s">
         <v>37</v>
@@ -1715,7 +1715,7 @@
       <c r="P23" s="34"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
@@ -1736,7 +1736,7 @@
       <c r="P24" s="29"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="13" t="s">
         <v>38</v>
@@ -1757,7 +1757,7 @@
       <c r="P25" s="30"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>23</v>
@@ -1778,7 +1778,7 @@
       <c r="P26" s="40"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="15" t="s">
         <v>21</v>
@@ -1799,7 +1799,7 @@
       <c r="P27" s="34"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
       <c r="C28" s="31"/>
@@ -1818,7 +1818,7 @@
       <c r="P28" s="29"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
       <c r="C29" s="41"/>
@@ -1837,7 +1837,7 @@
       <c r="P29" s="42"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1856,7 +1856,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1873,7 +1873,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -1892,7 +1892,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="43" t="s">
         <v>1</v>
@@ -1913,7 +1913,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="45"/>
       <c r="C34" s="46"/>
@@ -1932,7 +1932,7 @@
       <c r="P34" s="39"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="27" t="s">
         <v>0</v>
@@ -1974,68 +1974,54 @@
       <c r="P35" s="23"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="28"/>
-      <c r="C36" s="18" t="str">
-        <f>C5</f>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="D36" s="9" t="str">
-        <f t="shared" ref="D36:P36" si="5">D5</f>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="E36" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="F36" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="G36" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="H36" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="I36" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="J36" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="K36" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="L36" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="M36" s="18" t="str">
-        <f t="shared" ref="M36:N36" si="6">M5</f>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="N36" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="O36" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="P36" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>4 - 6pm</v>
+      <c r="C36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
         <v>24</v>
@@ -2056,7 +2042,7 @@
       <c r="P37" s="33"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="11" t="s">
         <v>25</v>
@@ -2077,7 +2063,7 @@
       <c r="P38" s="34"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="12" t="s">
         <v>9</v>
@@ -2098,7 +2084,7 @@
       <c r="P39" s="29"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
         <v>26</v>
@@ -2119,7 +2105,7 @@
       <c r="P40" s="30"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="14" t="s">
         <v>27</v>
@@ -2140,7 +2126,7 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="11" t="s">
         <v>28</v>
@@ -2161,7 +2147,7 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
         <v>8</v>
@@ -2182,7 +2168,7 @@
       <c r="P43" s="29"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="13" t="s">
         <v>29</v>
@@ -2203,7 +2189,7 @@
       <c r="P44" s="30"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="s">
         <v>30</v>
@@ -2224,7 +2210,7 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="11" t="s">
         <v>7</v>
@@ -2245,7 +2231,7 @@
       <c r="P46" s="34"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="12" t="s">
         <v>2</v>
@@ -2266,7 +2252,7 @@
       <c r="P47" s="29"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="13" t="s">
         <v>7</v>
@@ -2287,7 +2273,7 @@
       <c r="P48" s="30"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="14" t="s">
         <v>3</v>
@@ -2308,7 +2294,7 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="11" t="s">
         <v>28</v>
@@ -2329,7 +2315,7 @@
       <c r="P50" s="34"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="12" t="s">
         <v>35</v>
@@ -2350,7 +2336,7 @@
       <c r="P51" s="29"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="13"/>
       <c r="C52" s="32"/>
@@ -2369,7 +2355,7 @@
       <c r="P52" s="30"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="14" t="s">
         <v>36</v>
@@ -2390,7 +2376,7 @@
       <c r="P53" s="40"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="11"/>
       <c r="C54" s="25"/>
@@ -2409,7 +2395,7 @@
       <c r="P54" s="34"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="12" t="s">
         <v>4</v>
@@ -2430,7 +2416,7 @@
       <c r="P55" s="29"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="1:17" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="13" t="s">
         <v>41</v>
@@ -2451,7 +2437,7 @@
       <c r="P56" s="42"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="7"/>
       <c r="C57" s="3"/>
@@ -2470,7 +2456,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2487,7 +2473,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
@@ -2506,7 +2492,7 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="43" t="s">
         <v>40</v>
@@ -2531,7 +2517,7 @@
       <c r="P60" s="37"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
       <c r="B61" s="45"/>
       <c r="C61" s="46"/>
@@ -2550,7 +2536,7 @@
       <c r="P61" s="39"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="27" t="s">
         <v>0</v>
@@ -2592,68 +2578,54 @@
       <c r="P62" s="23"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="18" t="str">
-        <f>C36</f>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="D63" s="18" t="str">
-        <f t="shared" ref="D63:P63" si="7">D36</f>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="E63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="F63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="G63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="H63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="I63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="J63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="K63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="L63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="M63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="N63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 6pm</v>
-      </c>
-      <c r="O63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>10am - 12pm</v>
-      </c>
-      <c r="P63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 6pm</v>
+      <c r="C63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="14" t="s">
         <v>22</v>
@@ -2674,7 +2646,7 @@
       <c r="P64" s="33"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="17" t="s">
         <v>31</v>
@@ -2695,7 +2667,7 @@
       <c r="P65" s="34"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="12" t="s">
         <v>22</v>
@@ -2716,7 +2688,7 @@
       <c r="P66" s="29"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="13" t="s">
         <v>42</v>
@@ -2737,7 +2709,7 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="14"/>
       <c r="C68" s="35"/>
@@ -2756,7 +2728,7 @@
       <c r="P68" s="40"/>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="11"/>
       <c r="C69" s="25"/>
@@ -2775,7 +2747,7 @@
       <c r="P69" s="34"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="12"/>
       <c r="C70" s="31"/>
@@ -2794,7 +2766,7 @@
       <c r="P70" s="29"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="13"/>
       <c r="C71" s="32"/>
@@ -2813,7 +2785,7 @@
       <c r="P71" s="30"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="14"/>
       <c r="C72" s="35"/>
@@ -2832,7 +2804,7 @@
       <c r="P72" s="40"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="11"/>
       <c r="C73" s="25"/>
@@ -2851,7 +2823,7 @@
       <c r="P73" s="34"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="12"/>
       <c r="C74" s="31"/>
@@ -2870,7 +2842,7 @@
       <c r="P74" s="29"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="13"/>
       <c r="C75" s="32"/>
@@ -2889,7 +2861,7 @@
       <c r="P75" s="30"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="14"/>
       <c r="C76" s="35"/>
@@ -2908,7 +2880,7 @@
       <c r="P76" s="40"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="11"/>
       <c r="C77" s="25"/>
@@ -2927,7 +2899,7 @@
       <c r="P77" s="34"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="12"/>
       <c r="C78" s="31"/>
@@ -2946,7 +2918,7 @@
       <c r="P78" s="29"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="13"/>
       <c r="C79" s="32"/>
@@ -2965,7 +2937,7 @@
       <c r="P79" s="30"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="14"/>
       <c r="C80" s="35"/>
@@ -2984,7 +2956,7 @@
       <c r="P80" s="40"/>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="11"/>
       <c r="C81" s="25"/>
@@ -3003,7 +2975,7 @@
       <c r="P81" s="34"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="12"/>
       <c r="C82" s="31"/>
@@ -3022,7 +2994,7 @@
       <c r="P82" s="29"/>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3"/>
       <c r="B83" s="13"/>
       <c r="C83" s="41"/>
@@ -3041,7 +3013,7 @@
       <c r="P83" s="42"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="7"/>
       <c r="C84" s="3"/>
